--- a/tables/international_reserves_exchange_rates2.xlsx
+++ b/tables/international_reserves_exchange_rates2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Тенге-доллар США</t>
   </si>
@@ -33,20 +33,68 @@
     <t>Тенге-юань</t>
   </si>
   <si>
-    <t>Курсывалют</t>
-  </si>
-  <si>
-    <t>заавгуст</t>
-  </si>
-  <si>
     <t>2023 г</t>
+  </si>
+  <si>
+    <t>Курсы валют</t>
+  </si>
+  <si>
+    <t>за август</t>
+  </si>
+  <si>
+    <t>412,95</t>
+  </si>
+  <si>
+    <t>426,03</t>
+  </si>
+  <si>
+    <t>460,48</t>
+  </si>
+  <si>
+    <t>451,94</t>
+  </si>
+  <si>
+    <t>471,44</t>
+  </si>
+  <si>
+    <t>503,88</t>
+  </si>
+  <si>
+    <t>484,22</t>
+  </si>
+  <si>
+    <t>493,36</t>
+  </si>
+  <si>
+    <t>5,73</t>
+  </si>
+  <si>
+    <t>5,79</t>
+  </si>
+  <si>
+    <t>6,96</t>
+  </si>
+  <si>
+    <t>4,75</t>
+  </si>
+  <si>
+    <t>59,89</t>
+  </si>
+  <si>
+    <t>66,07</t>
+  </si>
+  <si>
+    <t>68,46</t>
+  </si>
+  <si>
+    <t>62,39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +124,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -86,7 +142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFB8CCE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,8 +229,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -184,20 +255,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="10"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,99 +538,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="39.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="40.799999999999997" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>412.95</v>
-      </c>
-      <c r="C2" s="5">
-        <v>426.03</v>
-      </c>
-      <c r="D2" s="5">
-        <v>460.48</v>
-      </c>
-      <c r="E2" s="5">
-        <v>451.94</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
+    <row r="4" spans="1:6" ht="27" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>471.44</v>
-      </c>
-      <c r="C3" s="5">
-        <v>503.88</v>
-      </c>
-      <c r="D3" s="5">
-        <v>484.22</v>
-      </c>
-      <c r="E3" s="5">
-        <v>493.36</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:6" ht="27" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5.73</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5.79</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6.96</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.75</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.6" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>59.89</v>
-      </c>
-      <c r="C5" s="5">
-        <v>66.069999999999993</v>
-      </c>
-      <c r="D5" s="5">
-        <v>68.459999999999994</v>
-      </c>
-      <c r="E5" s="5">
-        <v>62.39</v>
-      </c>
-      <c r="F5" s="8"/>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
